--- a/GIGLS.WebApi/ReportTemplate/dailysales.xlsx
+++ b/GIGLS.WebApi/ReportTemplate/dailysales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dev-GIG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\GIGDRIVE2\GIGLOS\GIGLS\GIGLS.WebApi\ReportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{395CE90F-1CBA-4FDC-9732-654780C86638}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F68F1479-65B5-4735-B825-807762BCBF27}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7515" tabRatio="749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7515" tabRatio="749" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report1" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <definedName name="TestTotal">Report2!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913" calcMode="manual"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -124,11 +123,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="[$₦-466]\ #,##0.00"/>
+    <numFmt numFmtId="169" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -402,7 +403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -480,17 +481,84 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="42" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1107,7 +1175,7 @@
   </sheetPr>
   <dimension ref="C1:W11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1233,8 +1301,8 @@
       </c>
     </row>
     <row r="10" spans="3:23" ht="16.5" customHeight="1">
-      <c r="C10" s="25"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
@@ -1256,7 +1324,7 @@
       <c r="W10" s="11"/>
     </row>
     <row r="11" spans="3:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C11" s="26"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="12" t="s">
         <v>0</v>
       </c>
@@ -1299,8 +1367,8 @@
   </sheetPr>
   <dimension ref="C1:W13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -1309,56 +1377,76 @@
     <col min="3" max="3" width="5.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="11" width="17.42578125" style="31" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:23" s="7" customFormat="1" ht="6.75" customHeight="1">
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="40"/>
+      <c r="W1" s="44"/>
     </row>
     <row r="2" spans="3:23" s="7" customFormat="1" ht="6.75" customHeight="1">
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="40"/>
+      <c r="W2" s="44"/>
     </row>
     <row r="3" spans="3:23" s="7" customFormat="1" ht="6.75" customHeight="1">
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="40"/>
+      <c r="W3" s="44"/>
     </row>
     <row r="4" spans="3:23" s="7" customFormat="1" ht="6.75" customHeight="1">
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="40"/>
+      <c r="W4" s="44"/>
     </row>
     <row r="5" spans="3:23" s="7" customFormat="1" ht="21.75" customHeight="1">
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="40"/>
+      <c r="W5" s="44"/>
     </row>
     <row r="6" spans="3:23" s="7" customFormat="1" ht="21.75" customHeight="1">
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="40"/>
+      <c r="W6" s="44"/>
     </row>
     <row r="7" spans="3:23" ht="42" customHeight="1">
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="23"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="41"/>
     </row>
     <row r="8" spans="3:23" ht="16.5" customHeight="1">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="3:23" ht="16.5" customHeight="1" thickBot="1">
       <c r="D9" s="19" t="s">
@@ -1373,19 +1461,19 @@
       <c r="G9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M9" s="19" t="s">
@@ -1418,21 +1506,21 @@
       <c r="V9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="W9" s="19" t="s">
+      <c r="W9" s="46" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="3:23" ht="16.5" customHeight="1">
-      <c r="C10" s="25"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="10"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="11"/>
@@ -1443,21 +1531,21 @@
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
-      <c r="W10" s="11"/>
+      <c r="W10" s="47"/>
     </row>
     <row r="11" spans="3:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C11" s="26"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
@@ -1468,7 +1556,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
+      <c r="W11" s="48"/>
     </row>
     <row r="12" spans="3:23" ht="20.25" customHeight="1">
       <c r="C12" s="13"/>
@@ -1476,11 +1564,11 @@
       <c r="E12" s="20"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
@@ -1491,21 +1579,21 @@
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
+      <c r="W12" s="49"/>
     </row>
     <row r="13" spans="3:23" ht="20.25" customHeight="1" thickBot="1">
       <c r="C13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -1516,7 +1604,7 @@
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
+      <c r="W13" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
